--- a/biology/Zoologie/Granastrapotherium/Granastrapotherium.xlsx
+++ b/biology/Zoologie/Granastrapotherium/Granastrapotherium.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Granastrapotherium snorki
-Granastrapotherium est un genre fossile de mammifères ongulés, décrit à partir de restes trouvés dans les sédiments du Miocène du groupe Honda (en) dans le désert de Tatacoa[1], dans les départements colombiens de Huila et Tolima, sur le site fossilifère de La Venta. Selon Paleobiology Database en 2023, le genre est resté monotypique et Granastrapotherium snorki est la seule espèce et l'espèce type.
+Granastrapotherium est un genre fossile de mammifères ongulés, décrit à partir de restes trouvés dans les sédiments du Miocène du groupe Honda (en) dans le désert de Tatacoa, dans les départements colombiens de Huila et Tolima, sur le site fossilifère de La Venta. Selon Paleobiology Database en 2023, le genre est resté monotypique et Granastrapotherium snorki est la seule espèce et l'espèce type.
 </t>
         </is>
       </c>
@@ -512,11 +524,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Granastrapotherium est décrit par Johnson en 1984. L'espèce Granastrapotherium snorki est décrite par Johnson &amp; Madden (d) en 1997.
-Étymologie
-Granastrapotherium snorki (de l’espagnol, gran, « grand », Astrapotherium, « foudre bête » et snorkel, « tube respiratoire » en anglais, en référence à la trompe) est la seule espèce officiellement reconnue. Des restes trouvés en Bolivie et au Pérou[2] semblent appartenir à Granastrapotherium ou à un animal très similaire.
 </t>
         </is>
       </c>
@@ -542,12 +554,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Cet astrapothère diffère de son contemporain, l'uruguaytheriiné Xenastrapotherium, par une taille supérieure, entre 2,5 et 3,5 tonnes, avec des défenses d’environ un mètre, ce qui en fait l’un des plus grands représentants d’Astrapotheria, dépassé seulement par certaines espèces de Parastrapotherium[3]. Parmi les autres différences figurent la présence d’une seule prémolaire, l’absence d’incisives des deux mâchoires et la disposition des canines, qui sont très larges et horizontales, ce qui rappelle beaucoup moins celles des hippopotames que les défenses de certains anciens parents des éléphants (tels que Palaeomastodon), bien que les défenses des éléphants et de leurs parents ne soient pas formées par les canines mais par les incisives. De même, les grandes narines semblent extrêmement retirées sur le crâne, de sorte que cette créature devait avoir un tronc plus grand que les autres astrapulaires. Comme les éléphants, cet animal a très probablement utilisé sa trompe musclée ainsi que ses défenses pour couper les feuilles des arbres et des arbustes[4].
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Granastrapotherium snorki (de l’espagnol, gran, « grand », Astrapotherium, « foudre bête » et snorkel, « tube respiratoire » en anglais, en référence à la trompe) est la seule espèce officiellement reconnue. Des restes trouvés en Bolivie et au Pérou semblent appartenir à Granastrapotherium ou à un animal très similaire.
 </t>
         </is>
       </c>
@@ -573,12 +591,47 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cet astrapothère diffère de son contemporain, l'uruguaytheriiné Xenastrapotherium, par une taille supérieure, entre 2,5 et 3,5 tonnes, avec des défenses d’environ un mètre, ce qui en fait l’un des plus grands représentants d’Astrapotheria, dépassé seulement par certaines espèces de Parastrapotherium. Parmi les autres différences figurent la présence d’une seule prémolaire, l’absence d’incisives des deux mâchoires et la disposition des canines, qui sont très larges et horizontales, ce qui rappelle beaucoup moins celles des hippopotames que les défenses de certains anciens parents des éléphants (tels que Palaeomastodon), bien que les défenses des éléphants et de leurs parents ne soient pas formées par les canines mais par les incisives. De même, les grandes narines semblent extrêmement retirées sur le crâne, de sorte que cette créature devait avoir un tronc plus grand que les autres astrapulaires. Comme les éléphants, cet animal a très probablement utilisé sa trompe musclée ainsi que ses défenses pour couper les feuilles des arbres et des arbustes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Granastrapotherium</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Granastrapotherium</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Phylogénie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le cladogramme suivant est basé sur l'analyse phylogénétique publiée par Vallejo-Pareja et al. en 2015. Il montre la position de Granastrapotherium au sein des Astrapotheriidae[5] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le cladogramme suivant est basé sur l'analyse phylogénétique publiée par Vallejo-Pareja et al. en 2015. Il montre la position de Granastrapotherium au sein des Astrapotheriidae :
 </t>
         </is>
       </c>
